--- a/datafor_r.xlsx
+++ b/datafor_r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Prashant/000 Fall_2018_AEM_STEM_Research/data_and_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noyou\OneDrive\Documents\gradeAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9D9DFB-9A75-104D-A9CB-4DC1398E7077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864E827-F6AD-4C16-BF57-2861135550AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{EF40B6AF-B7A5-0540-9DEB-C52414991F1B}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="18900" windowHeight="11055" xr2:uid="{EF40B6AF-B7A5-0540-9DEB-C52414991F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,6 @@
     <t>AEM</t>
   </si>
   <si>
-    <t>Calc1</t>
-  </si>
-  <si>
-    <t>Calc2</t>
-  </si>
-  <si>
-    <t>Calc3</t>
-  </si>
-  <si>
-    <t>Diffeq</t>
-  </si>
-  <si>
     <t>GpaPr</t>
   </si>
   <si>
@@ -60,12 +48,6 @@
   </si>
   <si>
     <t>MWF</t>
-  </si>
-  <si>
-    <t>NMjr</t>
-  </si>
-  <si>
-    <t>NMnr</t>
   </si>
   <si>
     <t>NUniPre</t>
@@ -83,7 +65,25 @@
     <t>PhOnce</t>
   </si>
   <si>
-    <t>Screen</t>
+    <t>gradecalc1</t>
+  </si>
+  <si>
+    <t>gradecalc2</t>
+  </si>
+  <si>
+    <t>gradecalc3</t>
+  </si>
+  <si>
+    <t>gradediffeq</t>
+  </si>
+  <si>
+    <t>screentime</t>
+  </si>
+  <si>
+    <t>mndegrees</t>
+  </si>
+  <si>
+    <t>mjrdegrees</t>
   </si>
 </sst>
 </file>
@@ -200,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +240,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,66 +498,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CB649A-844D-1847-9336-0C10350AE17F}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>76</v>
       </c>
@@ -610,7 +610,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>87.95</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>81</v>
       </c>
@@ -716,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>95.3</v>
       </c>
@@ -767,7 +767,7 @@
       </c>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>92</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>93.43</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>74</v>
       </c>
@@ -926,7 +926,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>73.75</v>
       </c>
@@ -979,7 +979,7 @@
         <v>6.4160000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>82.2</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>84.6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>79</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>91.65</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100.12</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>96.83</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>75</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>66.25</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>90</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>93.34</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>92.98</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>94</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>83.52</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>70</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>70</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>93.72</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>98.57</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>87.04</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>88</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>88.5</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>92.98</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>87.74</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>86</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>68.8</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>89.37</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>87.5</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>78</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>99.81</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>93</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>90.88</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>97.54</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>83.57</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>98.15</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>94</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>89</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4">
         <v>10</v>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>92.88</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>76.73</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>96</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>77.180000000000007</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>79.95</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>76</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>86.92</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>79.61</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>84</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>96.9</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>90.48</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>90.41</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4">
         <v>10</v>
@@ -3658,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>93</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>75</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4">
         <v>3</v>
@@ -3815,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>79.989999999999995</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>77.23</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>82</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>88</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>91.6</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4">
         <v>7</v>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>84.25</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2.3660000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4">
         <v>12</v>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>92</v>
       </c>
